--- a/分类后数据集及规范/基础类标准/卫生部临床路径/临床路径.xlsx
+++ b/分类后数据集及规范/基础类标准/卫生部临床路径/临床路径.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="281">
   <si>
     <t>&lt;卫生部临床路径合集&gt;</t>
   </si>
@@ -367,13 +365,506 @@
   </si>
   <si>
     <t>├22-肿瘤科-03-胃癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>├01</t>
+  </si>
+  <si>
+    <t>肺血栓栓塞症临床路径.doc</t>
+  </si>
+  <si>
+    <t>社区获得性肺炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>慢性阻塞性肺疾病临床路径.doc</t>
+  </si>
+  <si>
+    <t>支气管扩张症临床路径.doc</t>
+  </si>
+  <si>
+    <t>支气管哮喘临床路径.doc</t>
+  </si>
+  <si>
+    <t>自发性气胸临床路径.doc</t>
+  </si>
+  <si>
+    <t>├02</t>
+  </si>
+  <si>
+    <t>肝硬化腹水临床路径.doc</t>
+  </si>
+  <si>
+    <t>轻症急性胰腺炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>胆总管结石临床路径.doc</t>
+  </si>
+  <si>
+    <t>胃十二指肠溃疡临床路径.doc</t>
+  </si>
+  <si>
+    <t>大肠息肉临床路径.doc</t>
+  </si>
+  <si>
+    <t>反流食管炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>├03</t>
+  </si>
+  <si>
+    <t>短暂性脑缺血发作临床路径.doc</t>
+  </si>
+  <si>
+    <t>吉兰</t>
+  </si>
+  <si>
+    <t>多发性硬化临床路径.doc</t>
+  </si>
+  <si>
+    <t>癫痫临床路径.doc</t>
+  </si>
+  <si>
+    <t>重症肌无力临床路径.doc</t>
+  </si>
+  <si>
+    <t>├04</t>
+  </si>
+  <si>
+    <t>不稳定性心绞痛介入治疗临床路径.doc</t>
+  </si>
+  <si>
+    <t>慢性稳定性心绞痛介入治疗临床路径.doc</t>
+  </si>
+  <si>
+    <t>急性非ST段抬高性心肌梗死介入治疗.doc</t>
+  </si>
+  <si>
+    <t>急性左心功能衰竭临床路径.doc</t>
+  </si>
+  <si>
+    <t>病态窦房结综合征临床路径.doc</t>
+  </si>
+  <si>
+    <t>持续性室性心动过速临床路径.doc</t>
+  </si>
+  <si>
+    <t>急性ST段抬高心肌梗死临床路径.doc</t>
+  </si>
+  <si>
+    <t>├05</t>
+  </si>
+  <si>
+    <t>特发性血小板减少性紫癜临床路径.doc</t>
+  </si>
+  <si>
+    <t>急性早幼粒细胞白血病临床路径.doc</t>
+  </si>
+  <si>
+    <t>├06</t>
+  </si>
+  <si>
+    <t>终末期肾脏病临床路径.doc</t>
+  </si>
+  <si>
+    <t>狼疮性肾炎行肾穿刺活检临床路径.doc</t>
+  </si>
+  <si>
+    <t>急性肾损伤临床路径.doc</t>
+  </si>
+  <si>
+    <t>IgA肾病行肾穿刺活检临床路径.doc</t>
+  </si>
+  <si>
+    <t>├07</t>
+  </si>
+  <si>
+    <t>1型糖尿病临床路径.doc</t>
+  </si>
+  <si>
+    <t>2型糖尿病临床路径.doc</t>
+  </si>
+  <si>
+    <t>嗜铬细胞瘤 副神经节瘤.doc</t>
+  </si>
+  <si>
+    <t>库欣综合征临床路径.doc</t>
+  </si>
+  <si>
+    <t>Graves病临床路径.doc</t>
+  </si>
+  <si>
+    <t>├08</t>
+  </si>
+  <si>
+    <t>普通外科</t>
+  </si>
+  <si>
+    <t>急性乳腺炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>直肠息肉临床路径.doc</t>
+  </si>
+  <si>
+    <t>门静脉高压症临床路径.doc</t>
+  </si>
+  <si>
+    <t>腹股沟疝临床路径.doc</t>
+  </si>
+  <si>
+    <t>下肢静脉曲张临床路径.doc</t>
+  </si>
+  <si>
+    <t>血栓性外痔临床路径.doc</t>
+  </si>
+  <si>
+    <t>急性单纯性阑尾炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>结节性甲状腺肿临床路径.doc</t>
+  </si>
+  <si>
+    <t>├09</t>
+  </si>
+  <si>
+    <t>神经外科</t>
+  </si>
+  <si>
+    <t>颅前窝底脑膜瘤临床路径.doc</t>
+  </si>
+  <si>
+    <t>颅后窝脑膜瘤临床路径.doc</t>
+  </si>
+  <si>
+    <t>垂体腺瘤临床路径.doc</t>
+  </si>
+  <si>
+    <t>小脑扁桃体下疝畸形临床路径.doc</t>
+  </si>
+  <si>
+    <t>三叉神经痛临床路径.doc</t>
+  </si>
+  <si>
+    <t>慢性硬脑膜下血肿临床路径.doc</t>
+  </si>
+  <si>
+    <t>├10</t>
+  </si>
+  <si>
+    <t>骨科</t>
+  </si>
+  <si>
+    <t>腰椎间盘突出症临床路径.doc</t>
+  </si>
+  <si>
+    <t>颈椎病临床路径.doc</t>
+  </si>
+  <si>
+    <t>重度膝关节骨关节炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>股骨颈骨折临床路径.doc</t>
+  </si>
+  <si>
+    <t>胫骨平台骨折临床路径.doc</t>
+  </si>
+  <si>
+    <t>踝关节骨折临床路径.doc</t>
+  </si>
+  <si>
+    <t>股骨干骨折临床路径.doc</t>
+  </si>
+  <si>
+    <t>├11</t>
+  </si>
+  <si>
+    <t>泌尿外科</t>
+  </si>
+  <si>
+    <t>肾癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>膀胱肿瘤临床路径.doc</t>
+  </si>
+  <si>
+    <t>良性前列腺增生临床路径.doc</t>
+  </si>
+  <si>
+    <t>肾结石临床路径.doc</t>
+  </si>
+  <si>
+    <t>输尿管结石临床路径.doc</t>
+  </si>
+  <si>
+    <t>├12</t>
+  </si>
+  <si>
+    <t>胸外科</t>
+  </si>
+  <si>
+    <t>贲门失弛缓症临床路径.doc</t>
+  </si>
+  <si>
+    <t>食管癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>支气管肺癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>├13</t>
+  </si>
+  <si>
+    <t>心外科</t>
+  </si>
+  <si>
+    <t>房间隔缺损临床路径.doc</t>
+  </si>
+  <si>
+    <t>室间隔缺损临床路径.doc</t>
+  </si>
+  <si>
+    <t>动脉导管未闭临床路径.doc</t>
+  </si>
+  <si>
+    <t>冠状动脉粥样硬化性心脏病临床路径.doc</t>
+  </si>
+  <si>
+    <t>风湿性心脏病二尖瓣病变临床路径.doc</t>
+  </si>
+  <si>
+    <t>├14</t>
+  </si>
+  <si>
+    <t>妇科</t>
+  </si>
+  <si>
+    <t>卵巢良性肿瘤临床路径.doc</t>
+  </si>
+  <si>
+    <t>宫颈癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>输卵管妊娠临床路径.doc</t>
+  </si>
+  <si>
+    <t>子宫平滑肌瘤临床路径.doc</t>
+  </si>
+  <si>
+    <t>├15</t>
+  </si>
+  <si>
+    <t>产科</t>
+  </si>
+  <si>
+    <t>胎膜早破行阴道分娩临床路径.doc</t>
+  </si>
+  <si>
+    <t>自然临产阴道分娩临床路径.doc</t>
+  </si>
+  <si>
+    <t>计划性剖宫产临床路径.doc</t>
+  </si>
+  <si>
+    <t>├16</t>
+  </si>
+  <si>
+    <t>儿科</t>
+  </si>
+  <si>
+    <t>轮状病毒肠炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>麻疹合并肺炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>母婴ABO血型不合溶血病临床路径.doc</t>
+  </si>
+  <si>
+    <t>儿童房间隔缺损临床路径.doc</t>
+  </si>
+  <si>
+    <t>儿童室间隔缺损临床路径.doc</t>
+  </si>
+  <si>
+    <t>儿童先天性动脉导管未闭临床路径.doc</t>
+  </si>
+  <si>
+    <t>儿童先天性肺动脉瓣狭窄临床路径.doc</t>
+  </si>
+  <si>
+    <t>儿童急性淋巴细胞白血病临床路径.doc</t>
+  </si>
+  <si>
+    <t>儿童急性早幼粒细胞白血病临床路径.doc</t>
+  </si>
+  <si>
+    <t>├17</t>
+  </si>
+  <si>
+    <t>小儿外科</t>
+  </si>
+  <si>
+    <t>先天性巨结肠临床路径.doc</t>
+  </si>
+  <si>
+    <t>先天性幽门肥厚性狭窄临床路径.doc</t>
+  </si>
+  <si>
+    <t>尿道下裂临床路径.doc</t>
+  </si>
+  <si>
+    <t>急性肠套叠临床路径.doc</t>
+  </si>
+  <si>
+    <t>├18</t>
+  </si>
+  <si>
+    <t>眼科</t>
+  </si>
+  <si>
+    <t>原发性急性闭角型青光眼临床路径.doc</t>
+  </si>
+  <si>
+    <t>单纯性孔源性视网膜脱离临床路径.doc</t>
+  </si>
+  <si>
+    <t>共同性斜视临床路径.doc</t>
+  </si>
+  <si>
+    <t>上睑下垂临床路径.doc</t>
+  </si>
+  <si>
+    <t>老年性白内障临床路径.doc</t>
+  </si>
+  <si>
+    <t>├19</t>
+  </si>
+  <si>
+    <t>耳鼻喉科</t>
+  </si>
+  <si>
+    <t>慢性化脓性中耳炎临床路径.doc</t>
+  </si>
+  <si>
+    <t>慢性鼻.doc</t>
+  </si>
+  <si>
+    <t>喉癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>├20</t>
+  </si>
+  <si>
+    <t>口腔科</t>
+  </si>
+  <si>
+    <t>舌癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>唇裂临床路径.doc</t>
+  </si>
+  <si>
+    <t>腭裂临床路径.doc</t>
+  </si>
+  <si>
+    <t>下颌骨骨折临床路径.doc</t>
+  </si>
+  <si>
+    <t>下颌前突畸形临床路径.doc</t>
+  </si>
+  <si>
+    <t>腮腺多形性腺瘤临床路径.doc</t>
+  </si>
+  <si>
+    <t>├21</t>
+  </si>
+  <si>
+    <t>皮肤科</t>
+  </si>
+  <si>
+    <t>带状疱疹临床路径.doc</t>
+  </si>
+  <si>
+    <t>皮肌炎.doc</t>
+  </si>
+  <si>
+    <t>寻常型天疱疮临床路径.doc</t>
+  </si>
+  <si>
+    <t>重症多形红斑.doc</t>
+  </si>
+  <si>
+    <t>├22</t>
+  </si>
+  <si>
+    <t>肿瘤科</t>
+  </si>
+  <si>
+    <t>甲状腺癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>结肠癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>胃癌临床路径.doc</t>
+  </si>
+  <si>
+    <t>呼吸科</t>
+  </si>
+  <si>
+    <t>├1</t>
+  </si>
+  <si>
+    <t>├2</t>
+  </si>
+  <si>
+    <t>├3</t>
+  </si>
+  <si>
+    <t>├4</t>
+  </si>
+  <si>
+    <t>├5</t>
+  </si>
+  <si>
+    <t>├6</t>
+  </si>
+  <si>
+    <t>消化科</t>
+  </si>
+  <si>
+    <t>神内科</t>
+  </si>
+  <si>
+    <t>心内科</t>
+  </si>
+  <si>
+    <t>├7</t>
+  </si>
+  <si>
+    <t>血液科</t>
+  </si>
+  <si>
+    <t>肾内科</t>
+  </si>
+  <si>
+    <t>内分泌科</t>
+  </si>
+  <si>
+    <t>├8</t>
+  </si>
+  <si>
+    <t>├9</t>
+  </si>
+  <si>
+    <t>&lt;卫生部临床路径合集&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,7 +917,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,7 +991,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -535,7 +1025,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,632 +1200,1440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="82.25" customWidth="1"/>
+    <col min="1" max="1" width="82.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E43" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E44" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E48" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>268</v>
+      </c>
+      <c r="F55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E62" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E63" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E66" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E67" t="s">
+        <v>268</v>
+      </c>
+      <c r="F67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" t="s">
+        <v>265</v>
+      </c>
+      <c r="F68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E69" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E70" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E71" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E72" t="s">
+        <v>269</v>
+      </c>
+      <c r="F72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E74" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E75" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E76" t="s">
+        <v>269</v>
+      </c>
+      <c r="F76" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" t="s">
+        <v>265</v>
+      </c>
+      <c r="F77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E79" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E81" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E82" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E83" t="s">
+        <v>269</v>
+      </c>
+      <c r="F83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E84" t="s">
+        <v>270</v>
+      </c>
+      <c r="F84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E85" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E86" t="s">
+        <v>278</v>
+      </c>
+      <c r="F86" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E87" t="s">
+        <v>279</v>
+      </c>
+      <c r="F87" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E88" t="s">
+        <v>177</v>
+      </c>
+      <c r="F88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E90" t="s">
+        <v>266</v>
+      </c>
+      <c r="F90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E91" t="s">
+        <v>267</v>
+      </c>
+      <c r="F91" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E92" t="s">
+        <v>268</v>
+      </c>
+      <c r="F92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93" t="s">
+        <v>265</v>
+      </c>
+      <c r="F93" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E94" t="s">
+        <v>266</v>
+      </c>
+      <c r="F94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E95" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E96" t="s">
+        <v>268</v>
+      </c>
+      <c r="F96" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E97" t="s">
+        <v>269</v>
+      </c>
+      <c r="F97" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C98" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F98" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E99" t="s">
+        <v>267</v>
+      </c>
+      <c r="F99" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E100" t="s">
+        <v>268</v>
+      </c>
+      <c r="F100" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" t="s">
+        <v>265</v>
+      </c>
+      <c r="F101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E102" t="s">
+        <v>266</v>
+      </c>
+      <c r="F102" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E104" t="s">
+        <v>268</v>
+      </c>
+      <c r="F104" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E105" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E106" t="s">
+        <v>270</v>
+      </c>
+      <c r="F106" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C107" t="s">
+        <v>253</v>
+      </c>
+      <c r="D107" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" t="s">
+        <v>265</v>
+      </c>
+      <c r="F107" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E108" t="s">
+        <v>266</v>
+      </c>
+      <c r="F108" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E109" t="s">
+        <v>267</v>
+      </c>
+      <c r="F109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E110" t="s">
+        <v>268</v>
+      </c>
+      <c r="F110" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E111" t="s">
+        <v>265</v>
+      </c>
+      <c r="F111" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E112" t="s">
+        <v>266</v>
+      </c>
+      <c r="F112" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E113" t="s">
+        <v>267</v>
+      </c>
+      <c r="F113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E114" t="s">
+        <v>268</v>
+      </c>
+      <c r="F114" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" t="s">
+        <v>260</v>
+      </c>
+      <c r="E115" t="s">
+        <v>265</v>
+      </c>
+      <c r="F115" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E116" t="s">
+        <v>266</v>
+      </c>
+      <c r="F116" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>116</v>
       </c>
+      <c r="E117" t="s">
+        <v>267</v>
+      </c>
+      <c r="F117" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>